--- a/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,47%</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-12,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 7,28</t>
+          <t>-13,72; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 24,89</t>
+          <t>-0,17; 20,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 7,41</t>
+          <t>-16,12; 7,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 26,98</t>
+          <t>-3,93; 20,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 134,14</t>
+          <t>-8,29; 17,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 26,87</t>
+          <t>-8,14; 14,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-35,68; 26,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 98,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-37,05; 25,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 110,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-24,79; 89,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; 94,36</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-31,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -0,63</t>
+          <t>-25,55; 0,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 14,71</t>
+          <t>-6,11; 13,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 15,57</t>
+          <t>-8,34; 14,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,45; -2,36</t>
+          <t>-0,21; 22,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 47,2</t>
+          <t>-7,69; 13,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 59,15</t>
+          <t>-6,11; 16,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-55,5; 0,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,81; 43,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 57,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 125,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; 73,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 83,96</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>13,02</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-8,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>54,21%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 2,29</t>
+          <t>-14,95; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 19,81</t>
+          <t>4,19; 20,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,13</t>
+          <t>-12,27; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 6,96</t>
+          <t>-1,7; 17,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 67,2</t>
+          <t>-4,05; 15,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 14,38</t>
+          <t>1,7; 21,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 15,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 73,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-25,57; 12,95</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 61,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,72; 54,02</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 113,14</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -882,32 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 12,59</t>
+          <t>-5,59; 10,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 12,77</t>
+          <t>-1,16; 14,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 4,63</t>
+          <t>-13,18; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 58,27</t>
+          <t>5,42; 21,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 42,63</t>
+          <t>-2,69; 16,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 13,54</t>
+          <t>-5,36; 11,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-18,34; 48,51</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 49,17</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 8,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 93,33</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 62,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-14,19; 44,57</t>
         </is>
       </c>
     </row>
@@ -924,32 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>12,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>10,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>42,87%</t>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62,62%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,43%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 19,72</t>
+          <t>4,09; 20,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 14,42</t>
+          <t>-1,85; 13,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 19,06</t>
+          <t>2,65; 18,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,79; 122,02</t>
+          <t>2,18; 20,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 59,09</t>
+          <t>-8,99; 10,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 88,96</t>
+          <t>-7,01; 12,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 133,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 55,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 85,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 111,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-22,44; 40,84</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 43,69</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>15,85</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>18,49</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>60,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>82,13%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55,1%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>75,67%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 23,91</t>
+          <t>5,65; 26,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 20,81</t>
+          <t>1,42; 22,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 23,79</t>
+          <t>4,33; 24,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 90,12</t>
+          <t>7,72; 30,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 67,32</t>
+          <t>2,77; 27,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 121,29</t>
+          <t>7,11; 29,23</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 104,85</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 76,72</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 115,33</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26,06; 167,02</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 123,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 156,14</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>44,23%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
         </is>
       </c>
     </row>
@@ -1122,47 +1560,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,24</t>
+          <t>-1,68; 6,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,18</t>
+          <t>5,21; 12,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 6,51</t>
+          <t>-1,58; 6,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 16,95</t>
+          <t>7,71; 16,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,77; 39,51</t>
+          <t>2,28; 11,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 20,07</t>
+          <t>4,41; 13,09</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 22,75</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 41,24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 19,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 67,18</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 39,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 51,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
